--- a/TestsResultsEgor/V_out_vs_VFB_0004.xlsx
+++ b/TestsResultsEgor/V_out_vs_VFB_0004.xlsx
@@ -7791,8 +7791,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="040aae6765888028a2dbb8a91fabc5be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="443b4655a6c01d9bf8113974bee7b6ea" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8336fb09fe95d48c66b40bf5ced7df">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="377de24935a776123db0216d0d3e57ea" ns2:_="">
     <xsd:import namespace="2bbfcddc-9728-4227-8e06-a5558deb0e17"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -7804,6 +7804,9 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7830,6 +7833,23 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -7949,7 +7969,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970A2825-8073-427F-A679-316FC686B3D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636D6478-9CE7-473C-A6C6-43814D756F90}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
